--- a/meta/1-5-2.xlsx
+++ b/meta/1-5-2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -100,55 +100,118 @@
     <t>1.5: К 2030 году повысить жизнестойкость малоимущих и лиц, находящихся в уязвимом положении, и уменьшить их незащищенность и уязвимость перед вызванными изменением климата экстремальными явлениями и другими экономическими, социальными и экологическими потрясениями и бедствиями</t>
   </si>
   <si>
-    <t>1.5.2: Прямые экономические потери от бедствий в процентном соотношении к мировому валовому внутреннему продукту (ВВП).</t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
-    <t>Прямые экономические потери: денежная стоимость полного или частичного уничтожения физических активов, существующих в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу.</t>
-  </si>
-  <si>
-    <t>Данные о потерях в результате стихийных бедствий существенно зависят от крупномасштабных катастрофических событий, которые представляют собой исключение. МСУОБ ООН рекомендует странам сообщать данные о таких событиях, чтобы иметь возможность проводить анализ как с включением, так и исключением катастрофических событий, представляющих собой исключения.</t>
-  </si>
-  <si>
-    <t>В базе данных Кыргызской Республики по потерям от бедствий обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Преобразованное значение делится на ВВП (с поправкой на инфляцию, в постоянных ценах долл. США)</t>
-  </si>
-  <si>
-    <t>В Кыргызстане источником данных является Национальная база данных о стихийных бедствиях, представленная МСУОБ ООН. Процесс сбора: Официальные партнеры на уровне стран будут создавать / корректировать национальные база данных о потерях в случае возникновения стихийных бедствий создается в соответствии с рекомендациями и руководящими принципами, разработанными Межправительственной рабочей группой экспертов открытого состава по показателям и терминологии, касающихся уменьшения опасности бедствий (OEIWG).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Административные данные. (Предприятия и организации, органы местного самоуправления, города районного значения, представляют в местную государственную администрацию и районные отделы МЧС, далее в управления МЧС областей и города Бишкек, далее в МЧС КР). </t>
-  </si>
-  <si>
-    <t>Примечание: Международная стратегия Организации Объединенных Наций по уменьшению опасности бедствий (МСУОБ) предпочитает ссылаться на руководящие положения Межправительственной рабочей группы открытого состава, которая предоставляет полную подробную методологию для каждого показателя.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Данные по Кыргызстану доступны с 2007 года </t>
-  </si>
-  <si>
     <t>Национальный и субнациональный уровень.</t>
   </si>
   <si>
-    <t>Данные по Кыргызстану сопоставимы с данными других стран, так как составляются на основе международной методологии.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: http://www.preventionweb.net/documents/oiewg/
-Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf;
-Ссылки: Организацией Объединенных Наций было поручено создание Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающейся уменьшения опасности бедствий (OEIWG), для разработки набора показателей для измерения глобального прогресса в осуществлении Сендайской рамочная программы по снижению риска бедствий, включая семь глобальных целей. Работа OEIWG должна быть завершена к декабрю 2016 года, а ее доклад представлен Генеральной Ассамблее для рассмотрения. Межправительственная рабочая группа по Целям устойчивого развития IAEG-SDG и Статистическая комиссия ООН формально признают роль OEIWG и возлагают ответственность за дальнейшее уточнение и разработку методологии для индикаторов ЦУР, связанных с бедствиями на данную рабочую группу. http://www.preventionweb.net/drr-framework/open-ended-working-group/
-Последняя версия документов: http://www.preventionweb.net/drr-framework/open-ended-working-group/sessional-intersessionaldocuments
+    <t>1.5.2: Прямой экономический ущерб от чрезвычайных ситуаций в процентном отношении к национальному валовому внутреннему продукту (ВВП)</t>
+  </si>
+  <si>
+    <t>Министерство чрезвычайных ситуаций КР; Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
+  </si>
+  <si>
+    <t>МЧС: Кадырова Г.Б. / Мамбетов А.М.; НСК: Керималиева Н.К</t>
+  </si>
+  <si>
+    <t xml:space="preserve">МЧС: k-gulshat-b@mail.ru; НСК: Sdg_nsc@stat.kg </t>
+  </si>
+  <si>
+    <t>МЧС: (0312) 56-86-32; НСК: (0312) 32 46 91</t>
+  </si>
+  <si>
+    <t>МЧС: http://ru.mes.kg/ ; НСК: www.stat.kg</t>
+  </si>
+  <si>
+    <t>На глобальном уровне.
+Прямые экономические потери: денежная стоимость полного или частичного устранения причиненных физических нарушений в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу 
+Межправительственная рабочая группа экспертов открытого состава по показателям и терминологии, связанным с уменьшением опасности от бедствий, созданная Генеральной Ассамблеей (резолюция 69/284), разработала набор показателей для оценки глобального прогресса в осуществлении Сэндайской рамочной программы. Эти индикаторы в конечном итоге будут отражать соглашения по показателям Сэндайской рамочной программы. 
+Справочно: показатель 1.5.2 Прямые экономические потери от бедствий в процентном соотношении к мировому валовому внутреннему продукту (ВВП) согласован с Задачей С - снижение прямых экономических потерь в отношении мирового валового внутреннего продукта (ВВП) к 2030 году Сендайской рамочной программы СРБ.
+Данный показатель применим на национальном уровне в отношении национального валового внутреннего продукта.
+На национальном уровне.
+В Кыргызской Республике постановлением Правительства Кыргызской Республики от 11 ноября 2019 года № 597 утвержден порядок оценки ущерба от чрезвычайных ситуаций. В данном порядке приводятся основные понятия:
+- ущерб - оценка последствий чрезвычайных ситуаций, которые включают в себя изменения во всех сферах жизнедеятельности личности, общества, государства, появляющиеся или усиливающиеся в результате чрезвычайных ситуаций;
+- виды ущерба: материальный (как совокупность материальных и людских потерь) и экономический (в денежном выражении);
+- объект оценки ущерба от чрезвычайных ситуаций - население, материальные объекты, природная окружающая среда, являющиеся носителями полезных свойств и функций, которые утрачены в результате действия факторов чрезвычайных ситуаций или действий по их предотвращению и ликвидации;
+- оценка ущерба от чрезвычайных ситуаций - это экономическая характеристика, которая представляет последствия в стоимостном выражении.</t>
+  </si>
+  <si>
+    <t>На глобальном уровне. 
+Ключевые термины
+Экономические потери: Общее экономическое воздействие, которое состоит из прямых экономических потерь и косвенных экономических потерь.
+Прямые экономические потери: денежная стоимость полного или частичного разрушения материальных активов, существующих в зоне поражения. Прямые экономические потери почти эквивалентны физическому ущербу.
+Косвенные экономические потери: снижение экономической добавленной стоимости в результате прямых экономических потерь и/или воздействия на человека и окружающую среду.
+Восстановительная стоимость: стоимость замены поврежденных активов материалами подобного вида и качества.
+Примечание:
+Примерами физических активов, которые являются основой для расчета прямых экономических потерь, являются дома, школы, больницы, коммерческие и государственные здания, транспорт, энергетика, телекоммуникационная инфраструктура и другая инфраструктура; коммерческие активы и промышленные предприятия; производство, например, сельскохозяйственные культуры, животноводство и производственная инфраструктура. Они могут также включать природные богатства и культурное наследие.
+На национальном уровне.
+Материальное значение ущерба от чрезвычайных ситуаций выражается в восстановительной стоимости пострадавших от чрезвычайных ситуаций объектов производственного и социального назначения. Объекты производственного и социального назначения: все виды товарно-материальных средств, движимого и недвижимого имущества, в том числе здания, сооружения, коммуникации, инфраструктура, технические средства, оборудование, складские и другие помещения, животные, продукты растениеводства, земельные и водные ресурсы (ППКР от 11 ноября 2019 года № 597).
+Оценка ущерба от чрезвычайных ситуаций проводится:
+- на территориальном уровне - полномочными представителями Правительства Кыргызской Республики в областях, мэрами городов Бишкек и Ош, главами местных государственных администраций, исполнительными органами местного самоуправления - начальниками Гражданской защиты на своих территориях. Руководители соответствующих территориальных подразделений уполномоченного государственного органа в области Гражданской защиты являются заместителями начальника Гражданской защиты на территориальном уровне;
+- на объектовом уровне - руководителями организаций - начальниками Гражданской защиты;
+- в отраслевых системах - руководителями государственных органов власти - начальниками Гражданской защиты;
+- при необходимости, в зависимости от специфики чрезвычайных ситуаций - специальными совместными комиссиями/группами специалистов-экспертов, которые создаются отдельными решениями руководителей соответствующих органов управления Гражданской защиты.</t>
+  </si>
+  <si>
+    <t>Оценка ущерба от чрезвычайных ситуаций необходима:
+- для определения анализа экономических потерь и других негативных социально-экономических последствий, включающего в себя оценку возможного влияния чрезвычайной ситуации на экономические показатели, временное сокращение занятости, снижение доходов и уровня материального состояния пострадавших граждан и домохозяйств;
+- для определения государственных мероприятий, необходимых для экстренной ликвидации последствий чрезвычайных ситуаций, с целью уменьшения травмированности населения и начала восстановления экономики;
+- для определения потребностей в финансировании, необходимом для обеспечения полного восстановления экономических потерь и восстановления объектов производственного и социального назначения;
+- для определения степени воздействия в целом на экономику страны, внутренней валовой продукции, уровней экспорта, импорта, доходов, бедности и других социально-экономических показателей;
+- для инициирования, по решению Правительства Кыргызской Республики, процесса запроса и получения необходимой международной помощи, выходящей за рамки собственных возможностей страны.</t>
+  </si>
+  <si>
+    <t>МЧС КР (Форма №1-ЧС), комиссии по гражданской защите (Типовой акт Комиссии ГЗ), Национальный статистический комитет КР (Форма №1-ЧС, динамические ряды), система онлайн мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org</t>
+  </si>
+  <si>
+    <t>Основными органами, устанавливающими факт возникновения ЧС с указанием вида, масштаба и характера ущерба от ЧС являются Комиссии по Гражданской защите районов, городов (Закон КР «О гражданской защите», Типовое положение о Комиссиях ГЗ, утвержд. ППКР от 19 февраля 2019 года № 58). 
+Структура и состав комиссий по ГЗ могут быть разными и включаются все заинтересованные государственные органы, службы по ГЗ, крупные организации, ОМСУ, представители учреждений, предприятий в зависимости от угроз возникновения ЧС. Комиссии по Гражданской защите районов, городов после каждого ЧС определяет и устанавливает нанесенный ущерб. 
+Комиссионный метод оценки ущерба начинается также с момента возникновения ЧС, носит объемный характер, учитывающий все обстоятельства и характер произошедшего вида ЧС. Имеется типовой акт комиссии по Гражданской защите. Время, отведенное на работу комиссии, параметры измерений не ограничены, длительны и акты комиссии по Гражданской защите наиболее информативны в вопросах ущерба. Все данные об ущербе из типового акта Комиссии по гражданской защите переносятся в государственную статистическую форму отчетности №1-ЧС и обобщаются на национальном уровне в МЧС КР (2 раза в год) и передаются в Национальный статистический комитет КР один раз в год 20 февраля (начиная с 2018 года).</t>
+  </si>
+  <si>
+    <t>Краткое резюме
+В оригинальных национальных базах данных об авариях обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Конвертированное глобальное значение делится на глобальный ВВП (с поправкой на инфляцию, в постоянных ценах, в долларах США), рассчитанный на основе показателей развития Всемирного банка. 
+Глобальный уровень.
+Методика расчета по Сендайской программе:
+Расчет С1 (составной показатель) – прямые экономические потери в результате опасных происшествий относительно мирового валового внутреннего продукта:
+Расчет: С1 = (C2+C3+C4+C5+C6)/ВВП
+- С-2 – прямые сельскохозяйственные потери, связанные с бедствиями;
+- С-3 - прямые экономические потери всех других поврежденных или разрушенных производственных активов, связанных с бедствиями;
+- С-4 - прямые экономические потери в жилищном секторе, связанные с бедствиями;
+- С-5 - прямые экономические потери в результате повреждения или разрушения важнейших объектов инфраструктуры в результате бедствий;
+- С-6 - прямые экономические потери в связи с повреждением или разрушением культурного наследия в результате бедствий
+С-2 должен рассчитываться по Методике оценки ущерба в сельскохозяйственном секторе, лесном хозяйстве разработана ФАО и планируется введение в Кыргызской Республике в 2020 году.
+Расчеты по показателям С-3, С-4, С-5, С-6 осуществляются в соответствии с имеющимися отраслевыми методиками. 
+Последнюю версию методологии расчета по Сендайской программе СРБ (техническое руководство) можно получить по адресу:
+http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
+Национальный уровень.
+В настоящее время при оценке ущерба руководствуются «Порядком оценки ущерба в ЧС», утвержденным постановлением Правительства КР от 11 ноября 2019 года №576. 
+В связи с тем, что порядок оценки ущерба разработан и утвержден в ноябре 2019 года к настоящему времени не разработаны сами методы расчета в соответствии с порядком. В настоящее время оценка ущерба производится на основе отраслевых методов расчетов, действующих ранее только, по оценке материального ущерба. Работа по разработке методов расчета будет проводиться в будущем с учетом Глобальной методики Всемирного Банка.
+На сегодняшний день прямой экономический ущерб от чрезвычайных ситуаций в процентном отношении к национальному валовому внутреннему продукту (ВВП) рассчитывается по формуле:
+Прямой экономический ущерб= Суммарный ущерб от чрезвычайных ситуаций/ВВП*100</t>
+  </si>
+  <si>
+    <t>Не во всех странах имеется сопоставимая национальная база данных о потерях от стихийных бедствий, которая согласуется с этими руководящими принципами (хотя нынешний охват превышает 89 стран). Поэтому к 2020 году ожидается, что все страны будут создавать / корректировать национальные базы данных о стихийных бедствиях в соответствии с рекомендациями и руководящими принципами Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающимся уменьшения риска бедствий.
+Источники расхождений.
+Международные источники данных записывают только события, которые превышают некоторый порог воздействия. Эти источники данных обычно имеют неравномерные или даже непоследовательные методологии, создающие разнородные наборы данных. Наблюдение (данные на национальном уровне более полные): международные сборщики данных из-за ограничений доступа к информации не регистрируют большое количество событий, которые не публикуются на международном уровне или никогда не «видны» из используемых вторичных источников данных.
+В Кыргызской Республике подсчет количества, видов, степени тяжести чрезвычайных ситуаций определяется в соответствие с «Классификацией ЧС и критериев их оценки», утвержденной постановлением Правительства КР №550 от 22 ноября 2018 года, главными признаками которого является нанесенный ущерб, количество погибших и количество населения с нарушенной жизнедеятельностью.</t>
+  </si>
+  <si>
+    <t>Информация формируется из актов комиссий по ГЗ, перетекающие в формы государственной статистической отчетности №1-ЧС.
+МЧС КР как государственный орган представляет данные в Нацстатком КР по государственной статистической форме отчетности №1-ЧС с февраля 2018 г. 
+Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org.</t>
+  </si>
+  <si>
+    <t>Отчетность по показателю представляется МЧС КР в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития, а также по форме №1-ЧС. Данные представлены на сайте НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития и раздел отчетность, Экологическая статистика.    
+В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
+Примечание:
+До введения государственной статистической формы отчетности №1-ЧС, были данные во временных рядах: с 1990 по 2013, и до 2017 года: Национальная база данных об авариях, то есть в Национальной базе данных об авариях недостающие значения и 0 или пустые значения считались ранее эквивалентными. 
+В настоящее время данные по ущербу в соотношении к ВВП доступны на сайте НСК КР в разделе ЦУР, динамические таблицы по показателю 1.5.2.1. Прямые экономические потери от бедствий в процентном соотношении к ВВП.</t>
+  </si>
+  <si>
+    <t>Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сайт МЧС КР, http://ru.mes.kg/
+Сайт НСК КР, http://www.stat.kg/ru/, раздел отчетность, Экологическая статистика, Форма № 1-ЧС. В разделе ЦУР, динамические таблицы по показателю 1.5.2. Прямые экономические потери от чрезвычайных ситуаций в процентном соотношении к национальному ВВП.
 Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 </t>
   </si>
@@ -157,12 +220,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,26 +300,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -559,13 +638,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="147" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -595,8 +674,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -609,40 +688,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -651,28 +730,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -685,16 +764,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
+      <c r="B17" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -703,25 +782,29 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -729,36 +812,36 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>40</v>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>41</v>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>43</v>
+      <c r="B26" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/meta/1-5-2.xlsx
+++ b/meta/1-5-2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>1. Информация об индикаторе</t>
   </si>
@@ -100,132 +100,85 @@
     <t>1.5: К 2030 году повысить жизнестойкость малоимущих и лиц, находящихся в уязвимом положении, и уменьшить их незащищенность и уязвимость перед вызванными изменением климата экстремальными явлениями и другими экономическими, социальными и экологическими потрясениями и бедствиями</t>
   </si>
   <si>
+    <t>Прямые экономические потери: денежная стоимость полного или частичного уничтожения физических активов, существующих в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу.</t>
+  </si>
+  <si>
+    <t>Данные о потерях в результате стихийных бедствий существенно зависят от крупномасштабных катастрофических событий, которые представляют собой исключение. МСУОБ ООН рекомендует странам сообщать данные о таких событиях, чтобы иметь возможность проводить анализ как с включением, так и исключением катастрофических событий, представляющих собой исключения.</t>
+  </si>
+  <si>
+    <t>В базе данных Кыргызской Республики по потерям от бедствий обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Преобразованное значение делится на ВВП (с поправкой на инфляцию, в постоянных ценах долл. США)</t>
+  </si>
+  <si>
+    <t>В Кыргызстане источником данных является Национальная база данных о стихийных бедствиях, представленная МСУОБ ООН. Процесс сбора: Официальные партнеры на уровне стран будут создавать / корректировать национальные база данных о потерях в случае возникновения стихийных бедствий создается в соответствии с рекомендациями и руководящими принципами, разработанными Межправительственной рабочей группой экспертов открытого состава по показателям и терминологии, касающихся уменьшения опасности бедствий (OEIWG).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Административные данные. (Предприятия и организации, органы местного самоуправления, города районного значения, представляют в местную государственную администрацию и районные отделы МЧС, далее в управления МЧС областей и города Бишкек, далее в МЧС КР). </t>
+  </si>
+  <si>
+    <t>Примечание: Международная стратегия Организации Объединенных Наций по уменьшению опасности бедствий (МСУОБ) предпочитает ссылаться на руководящие положения Межправительственной рабочей группы открытого состава, которая предоставляет полную подробную методологию для каждого показателя.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Данные по Кыргызстану доступны с 2007 года </t>
+  </si>
+  <si>
     <t>Национальный и субнациональный уровень.</t>
   </si>
   <si>
-    <t>1.5.2: Прямой экономический ущерб от чрезвычайных ситуаций в процентном отношении к национальному валовому внутреннему продукту (ВВП)</t>
-  </si>
-  <si>
-    <t>Министерство чрезвычайных ситуаций КР; Национальный статистический комитет КР (Управление статистики устойчивого развития и окружающей среды)</t>
-  </si>
-  <si>
-    <t>МЧС: Кадырова Г.Б. / Мамбетов А.М.; НСК: Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЧС: k-gulshat-b@mail.ru; НСК: Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>МЧС: (0312) 56-86-32; НСК: (0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>МЧС: http://ru.mes.kg/ ; НСК: www.stat.kg</t>
-  </si>
-  <si>
-    <t>На глобальном уровне.
-Прямые экономические потери: денежная стоимость полного или частичного устранения причиненных физических нарушений в пострадавшем районе. Прямые экономические потери почти эквивалентны физическому ущербу 
-Межправительственная рабочая группа экспертов открытого состава по показателям и терминологии, связанным с уменьшением опасности от бедствий, созданная Генеральной Ассамблеей (резолюция 69/284), разработала набор показателей для оценки глобального прогресса в осуществлении Сэндайской рамочной программы. Эти индикаторы в конечном итоге будут отражать соглашения по показателям Сэндайской рамочной программы. 
-Справочно: показатель 1.5.2 Прямые экономические потери от бедствий в процентном соотношении к мировому валовому внутреннему продукту (ВВП) согласован с Задачей С - снижение прямых экономических потерь в отношении мирового валового внутреннего продукта (ВВП) к 2030 году Сендайской рамочной программы СРБ.
-Данный показатель применим на национальном уровне в отношении национального валового внутреннего продукта.
-На национальном уровне.
-В Кыргызской Республике постановлением Правительства Кыргызской Республики от 11 ноября 2019 года № 597 утвержден порядок оценки ущерба от чрезвычайных ситуаций. В данном порядке приводятся основные понятия:
-- ущерб - оценка последствий чрезвычайных ситуаций, которые включают в себя изменения во всех сферах жизнедеятельности личности, общества, государства, появляющиеся или усиливающиеся в результате чрезвычайных ситуаций;
-- виды ущерба: материальный (как совокупность материальных и людских потерь) и экономический (в денежном выражении);
-- объект оценки ущерба от чрезвычайных ситуаций - население, материальные объекты, природная окружающая среда, являющиеся носителями полезных свойств и функций, которые утрачены в результате действия факторов чрезвычайных ситуаций или действий по их предотвращению и ликвидации;
-- оценка ущерба от чрезвычайных ситуаций - это экономическая характеристика, которая представляет последствия в стоимостном выражении.</t>
-  </si>
-  <si>
-    <t>На глобальном уровне. 
-Ключевые термины
-Экономические потери: Общее экономическое воздействие, которое состоит из прямых экономических потерь и косвенных экономических потерь.
-Прямые экономические потери: денежная стоимость полного или частичного разрушения материальных активов, существующих в зоне поражения. Прямые экономические потери почти эквивалентны физическому ущербу.
-Косвенные экономические потери: снижение экономической добавленной стоимости в результате прямых экономических потерь и/или воздействия на человека и окружающую среду.
-Восстановительная стоимость: стоимость замены поврежденных активов материалами подобного вида и качества.
-Примечание:
-Примерами физических активов, которые являются основой для расчета прямых экономических потерь, являются дома, школы, больницы, коммерческие и государственные здания, транспорт, энергетика, телекоммуникационная инфраструктура и другая инфраструктура; коммерческие активы и промышленные предприятия; производство, например, сельскохозяйственные культуры, животноводство и производственная инфраструктура. Они могут также включать природные богатства и культурное наследие.
-На национальном уровне.
-Материальное значение ущерба от чрезвычайных ситуаций выражается в восстановительной стоимости пострадавших от чрезвычайных ситуаций объектов производственного и социального назначения. Объекты производственного и социального назначения: все виды товарно-материальных средств, движимого и недвижимого имущества, в том числе здания, сооружения, коммуникации, инфраструктура, технические средства, оборудование, складские и другие помещения, животные, продукты растениеводства, земельные и водные ресурсы (ППКР от 11 ноября 2019 года № 597).
-Оценка ущерба от чрезвычайных ситуаций проводится:
-- на территориальном уровне - полномочными представителями Правительства Кыргызской Республики в областях, мэрами городов Бишкек и Ош, главами местных государственных администраций, исполнительными органами местного самоуправления - начальниками Гражданской защиты на своих территориях. Руководители соответствующих территориальных подразделений уполномоченного государственного органа в области Гражданской защиты являются заместителями начальника Гражданской защиты на территориальном уровне;
-- на объектовом уровне - руководителями организаций - начальниками Гражданской защиты;
-- в отраслевых системах - руководителями государственных органов власти - начальниками Гражданской защиты;
-- при необходимости, в зависимости от специфики чрезвычайных ситуаций - специальными совместными комиссиями/группами специалистов-экспертов, которые создаются отдельными решениями руководителей соответствующих органов управления Гражданской защиты.</t>
-  </si>
-  <si>
-    <t>Оценка ущерба от чрезвычайных ситуаций необходима:
-- для определения анализа экономических потерь и других негативных социально-экономических последствий, включающего в себя оценку возможного влияния чрезвычайной ситуации на экономические показатели, временное сокращение занятости, снижение доходов и уровня материального состояния пострадавших граждан и домохозяйств;
-- для определения государственных мероприятий, необходимых для экстренной ликвидации последствий чрезвычайных ситуаций, с целью уменьшения травмированности населения и начала восстановления экономики;
-- для определения потребностей в финансировании, необходимом для обеспечения полного восстановления экономических потерь и восстановления объектов производственного и социального назначения;
-- для определения степени воздействия в целом на экономику страны, внутренней валовой продукции, уровней экспорта, импорта, доходов, бедности и других социально-экономических показателей;
-- для инициирования, по решению Правительства Кыргызской Республики, процесса запроса и получения необходимой международной помощи, выходящей за рамки собственных возможностей страны.</t>
-  </si>
-  <si>
-    <t>МЧС КР (Форма №1-ЧС), комиссии по гражданской защите (Типовой акт Комиссии ГЗ), Национальный статистический комитет КР (Форма №1-ЧС, динамические ряды), система онлайн мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org</t>
-  </si>
-  <si>
-    <t>Основными органами, устанавливающими факт возникновения ЧС с указанием вида, масштаба и характера ущерба от ЧС являются Комиссии по Гражданской защите районов, городов (Закон КР «О гражданской защите», Типовое положение о Комиссиях ГЗ, утвержд. ППКР от 19 февраля 2019 года № 58). 
-Структура и состав комиссий по ГЗ могут быть разными и включаются все заинтересованные государственные органы, службы по ГЗ, крупные организации, ОМСУ, представители учреждений, предприятий в зависимости от угроз возникновения ЧС. Комиссии по Гражданской защите районов, городов после каждого ЧС определяет и устанавливает нанесенный ущерб. 
-Комиссионный метод оценки ущерба начинается также с момента возникновения ЧС, носит объемный характер, учитывающий все обстоятельства и характер произошедшего вида ЧС. Имеется типовой акт комиссии по Гражданской защите. Время, отведенное на работу комиссии, параметры измерений не ограничены, длительны и акты комиссии по Гражданской защите наиболее информативны в вопросах ущерба. Все данные об ущербе из типового акта Комиссии по гражданской защите переносятся в государственную статистическую форму отчетности №1-ЧС и обобщаются на национальном уровне в МЧС КР (2 раза в год) и передаются в Национальный статистический комитет КР один раз в год 20 февраля (начиная с 2018 года).</t>
-  </si>
-  <si>
-    <t>Краткое резюме
-В оригинальных национальных базах данных об авариях обычно регистрируется стоимость физического ущерба (потеря единицы жилья, потеря инфраструктуры и т. д.), которая нуждается в преобразовании в денежную оценку в соответствии с методологией МСУОБ ООН. Конвертированное глобальное значение делится на глобальный ВВП (с поправкой на инфляцию, в постоянных ценах, в долларах США), рассчитанный на основе показателей развития Всемирного банка. 
-Глобальный уровень.
-Методика расчета по Сендайской программе:
-Расчет С1 (составной показатель) – прямые экономические потери в результате опасных происшествий относительно мирового валового внутреннего продукта:
-Расчет: С1 = (C2+C3+C4+C5+C6)/ВВП
-- С-2 – прямые сельскохозяйственные потери, связанные с бедствиями;
-- С-3 - прямые экономические потери всех других поврежденных или разрушенных производственных активов, связанных с бедствиями;
-- С-4 - прямые экономические потери в жилищном секторе, связанные с бедствиями;
-- С-5 - прямые экономические потери в результате повреждения или разрушения важнейших объектов инфраструктуры в результате бедствий;
-- С-6 - прямые экономические потери в связи с повреждением или разрушением культурного наследия в результате бедствий
-С-2 должен рассчитываться по Методике оценки ущерба в сельскохозяйственном секторе, лесном хозяйстве разработана ФАО и планируется введение в Кыргызской Республике в 2020 году.
-Расчеты по показателям С-3, С-4, С-5, С-6 осуществляются в соответствии с имеющимися отраслевыми методиками. 
-Последнюю версию методологии расчета по Сендайской программе СРБ (техническое руководство) можно получить по адресу:
-http://www.preventionweb.net/documents/oiewg/Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf
-Национальный уровень.
-В настоящее время при оценке ущерба руководствуются «Порядком оценки ущерба в ЧС», утвержденным постановлением Правительства КР от 11 ноября 2019 года №576. 
-В связи с тем, что порядок оценки ущерба разработан и утвержден в ноябре 2019 года к настоящему времени не разработаны сами методы расчета в соответствии с порядком. В настоящее время оценка ущерба производится на основе отраслевых методов расчетов, действующих ранее только, по оценке материального ущерба. Работа по разработке методов расчета будет проводиться в будущем с учетом Глобальной методики Всемирного Банка.
-На сегодняшний день прямой экономический ущерб от чрезвычайных ситуаций в процентном отношении к национальному валовому внутреннему продукту (ВВП) рассчитывается по формуле:
-Прямой экономический ущерб= Суммарный ущерб от чрезвычайных ситуаций/ВВП*100</t>
-  </si>
-  <si>
-    <t>Не во всех странах имеется сопоставимая национальная база данных о потерях от стихийных бедствий, которая согласуется с этими руководящими принципами (хотя нынешний охват превышает 89 стран). Поэтому к 2020 году ожидается, что все страны будут создавать / корректировать национальные базы данных о стихийных бедствиях в соответствии с рекомендациями и руководящими принципами Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающимся уменьшения риска бедствий.
-Источники расхождений.
-Международные источники данных записывают только события, которые превышают некоторый порог воздействия. Эти источники данных обычно имеют неравномерные или даже непоследовательные методологии, создающие разнородные наборы данных. Наблюдение (данные на национальном уровне более полные): международные сборщики данных из-за ограничений доступа к информации не регистрируют большое количество событий, которые не публикуются на международном уровне или никогда не «видны» из используемых вторичных источников данных.
-В Кыргызской Республике подсчет количества, видов, степени тяжести чрезвычайных ситуаций определяется в соответствие с «Классификацией ЧС и критериев их оценки», утвержденной постановлением Правительства КР №550 от 22 ноября 2018 года, главными признаками которого является нанесенный ущерб, количество погибших и количество населения с нарушенной жизнедеятельностью.</t>
-  </si>
-  <si>
-    <t>Информация формируется из актов комиссий по ГЗ, перетекающие в формы государственной статистической отчетности №1-ЧС.
-МЧС КР как государственный орган представляет данные в Нацстатком КР по государственной статистической форме отчетности №1-ЧС с февраля 2018 г. 
-Страны представляют отчетные данные в систему онлайн мониторинга Сендайской рамочной программы. Заполнение данных проходит 3 уровня (автор, валидатор, национальный координатор), все данные отображаются в онлайн режиме на сайте мониторинга Сендайской рамочной программы https://sendaicommitments.unisdr.org.</t>
-  </si>
-  <si>
-    <t>Отчетность по показателю представляется МЧС КР в Нацстатком КР по Матрице инвентаризации и адаптации задач и показателей Целей устойчивого развития, а также по форме №1-ЧС. Данные представлены на сайте НСК КР, http://www.stat.kg/ru/, раздел ЦУР, Матрица инвентаризации и адаптации задач и показателей Целей устойчивого развития и раздел отчетность, Экологическая статистика.    
-В онлайн режиме на сайте мониторинга Сендая. https://sendaicommitments.unisdr.org 
-Примечание:
-До введения государственной статистической формы отчетности №1-ЧС, были данные во временных рядах: с 1990 по 2013, и до 2017 года: Национальная база данных об авариях, то есть в Национальной базе данных об авариях недостающие значения и 0 или пустые значения считались ранее эквивалентными. 
-В настоящее время данные по ущербу в соотношении к ВВП доступны на сайте НСК КР в разделе ЦУР, динамические таблицы по показателю 1.5.2.1. Прямые экономические потери от бедствий в процентном соотношении к ВВП.</t>
-  </si>
-  <si>
-    <t>Данные сопоставимы и представляются данные в систему онлайн мониторинга Сендайской рамочной программы.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сайт МЧС КР, http://ru.mes.kg/
-Сайт НСК КР, http://www.stat.kg/ru/, раздел отчетность, Экологическая статистика, Форма № 1-ЧС. В разделе ЦУР, динамические таблицы по показателю 1.5.2. Прямые экономические потери от чрезвычайных ситуаций в процентном соотношении к национальному ВВП.
+    <t>Данные по Кыргызстану сопоставимы с данными других стран, так как составляются на основе международной методологии.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: http://www.preventionweb.net/documents/oiewg/
+Technical%20Collection%20of%20Concept%20Notes%20on%20Indicators.pdf;
+Ссылки: Организацией Объединенных Наций было поручено создание Межправительственной рабочей группы экспертов открытого состава по показателям и терминологии, касающейся уменьшения опасности бедствий (OEIWG), для разработки набора показателей для измерения глобального прогресса в осуществлении Сендайской рамочная программы по снижению риска бедствий, включая семь глобальных целей. Работа OEIWG должна быть завершена к декабрю 2016 года, а ее доклад представлен Генеральной Ассамблее для рассмотрения. Межправительственная рабочая группа по Целям устойчивого развития IAEG-SDG и Статистическая комиссия ООН формально признают роль OEIWG и возлагают ответственность за дальнейшее уточнение и разработку методологии для индикаторов ЦУР, связанных с бедствиями на данную рабочую группу. http://www.preventionweb.net/drr-framework/open-ended-working-group/
+Последняя версия документов: http://www.preventionweb.net/drr-framework/open-ended-working-group/sessional-intersessionaldocuments
 Национальная платформа отчетности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io
 </t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление цифрового развития и статистики устойчивого развития)</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>1.5.2: Прямые экономические потери от бедствий в процентном отношении к мировому валовому внутреннему продукту (ВВП).</t>
+  </si>
+  <si>
+    <t>Мамбеталиев Т.А.</t>
+  </si>
+  <si>
+    <t>(0312) 62 56 07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">НСК: Sdg_nsc@stat.kg </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -300,29 +253,37 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -638,13 +599,13 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="147" style="3" customWidth="1"/>
+    <col min="2" max="2" width="71.7109375" style="3" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
@@ -674,8 +635,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>29</v>
+      <c r="B4" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,15 +650,15 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>31</v>
+      <c r="B7" s="10" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,15 +666,15 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
+      <c r="B9" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -721,7 +682,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -730,28 +691,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="284.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="180" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>37</v>
+      <c r="B14" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,16 +725,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>39</v>
+      <c r="B17" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -782,29 +743,25 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -812,36 +769,36 @@
       </c>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" ht="167.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>43</v>
+      <c r="B23" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>28</v>
+      <c r="B24" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="299.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>45</v>
+      <c r="B26" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
